--- a/biology/Botanique/Phalaenopsis_ubonensis/Phalaenopsis_ubonensis.xlsx
+++ b/biology/Botanique/Phalaenopsis_ubonensis/Phalaenopsis_ubonensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phalaenopsis ubonensis est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) originaire de Thaïlande et du Laos[1]. L'épithète spécifique ubonensis fait référence à la province thaïlandaise d'Ubon[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phalaenopsis ubonensis est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) originaire de Thaïlande et du Laos. L'épithète spécifique ubonensis fait référence à la province thaïlandaise d'Ubon.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce d'orchidée lithophyte miniature à croissance chaude porte 6-12 feuilles de 10-16 cm de long sur des tiges de 10-15 cm de long. En été et en automne, des inflorescences axillaires, de 50-150 cm de long, érigées et ramifiées produisent des fleurs parfumées, de couleur lavande, rose ou lilas, qui sont plus grandes que les fleurs de l'espèce alliée Phalaenopsis pulcherrima[3],[2]. Les fleurs font 5 cm de large[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce d'orchidée lithophyte miniature à croissance chaude porte 6-12 feuilles de 10-16 cm de long sur des tiges de 10-15 cm de long. En été et en automne, des inflorescences axillaires, de 50-150 cm de long, érigées et ramifiées produisent des fleurs parfumées, de couleur lavande, rose ou lilas, qui sont plus grandes que les fleurs de l'espèce alliée Phalaenopsis pulcherrima,. Les fleurs font 5 cm de large.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la trouve dans les forêts tropicales de plaine à des altitudes de 150-400 m[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve dans les forêts tropicales de plaine à des altitudes de 150-400 m.
 </t>
         </is>
       </c>
@@ -573,11 +589,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a une affinité avec Phalaenopsis pulcherrima et Phalaenopsis buyssoniana[3].
-Synonymes
-Doritis ubonensis O.Gruss est un synonyme de Phalaenopsis ubonensis (O.Gruss) J.M.H.Shaw[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a une affinité avec Phalaenopsis pulcherrima et Phalaenopsis buyssoniana.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Phalaenopsis_ubonensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Phalaenopsis_ubonensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Doritis ubonensis O.Gruss est un synonyme de Phalaenopsis ubonensis (O.Gruss) J.M.H.Shaw.
 </t>
         </is>
       </c>
